--- a/resultados_por_patron.xlsx
+++ b/resultados_por_patron.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="1" r:id="rId1"/>
-    <sheet name="a.b" sheetId="2" r:id="rId2"/>
-    <sheet name="a.b.c" sheetId="3" r:id="rId3"/>
-    <sheet name="Resumen" sheetId="4" r:id="rId4"/>
+    <sheet name="a.b.c" sheetId="2" r:id="rId2"/>
+    <sheet name="a.b" sheetId="3" r:id="rId3"/>
+    <sheet name="a(1,4).b" sheetId="4" r:id="rId4"/>
+    <sheet name="Resumen" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="236">
   <si>
     <t>Consulta</t>
   </si>
@@ -46,265 +47,655 @@
     <t>Desviación Estándar (ms)</t>
   </si>
   <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:isLocatedIn/:isPartOf/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:replyOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 ((:replyOf{1,4})/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (pL0)=[ALL TRAILS ?p1 (:isPartOf/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:replyOf)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:isLocatedIn/:isPartOf/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (tc0)=[ALL TRAILS ?p1 ((:isSubclassOf{1,4})/:isSubclassOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 ((:replyOf{1,4})/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 ((:replyOf{1,4})/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:likes)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:workAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (pL0)=[ALL TRAILS ?p1 (:isPartOf/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
     <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:likes)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003614)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
     <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:studyAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
     <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:workAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:replyOf/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f0)=[ALL TRAILS ?p1 (:hasModerator/:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:replyOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:hasCreator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (m1003606)=[ALL TRAILS ?p1 (:hasCreator/:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:hasCreator/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6405)=[ALL TRAILS ?p1 (:likes/:hasCreator/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f63750)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 (:knows/:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (f57237)=[ALL TRAILS ?p1 (:hasMember/:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (p6168)=[ALL TRAILS ?p1 ((:knows{1,4})/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>a.b.c</t>
+  </si>
+  <si>
     <t>a.b</t>
   </si>
   <si>
-    <t>a.b.c</t>
+    <t>a(1,4).b</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:isLocatedIn/:isPartOf/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:replyOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:replyOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 ((:replyOf{1,4})/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:isPartOf/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:replyOf)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:isLocatedIn/:isPartOf/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 ((:isSubclassOf{1,4})/:isSubclassOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (x)=[ALL TRAILS ?p1 ((:replyOf{1,4})/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 ((:replyOf{1,4})/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:likes)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:workAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:isPartOf/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:likes)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:replyOf/:hasCreator/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:studyAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
-  </si>
-  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:isLocatedIn/:isPartOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
-    <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:workAt)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:replyOf/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:replyOf/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
     <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
   </si>
   <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:hasCreator/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:hasCreator/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasModerator/:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:replyOf/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:hasCreator/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:knows/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:knows/:isLocatedIn)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:knows/:workAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:hasCreator/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasCreator/:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:hasCreator/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:likes/:replyOf)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:likes/:hasCreator)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:knows/:hasInterest)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:knows/:knows)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:likes/:hasTag)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:likes/:hasCreator/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:containerOf/:hasCreator/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:knows/:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 (:hasMember/:knows/:likes)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>MATCH (x)=[ALL TRAILS ?p1 ((:knows{1,4})/:studyAt)]=&gt;(?y) RETURN ?p1</t>
+  </si>
+  <si>
+    <t>m1003606</t>
+  </si>
+  <si>
     <t>m1003614</t>
   </si>
   <si>
-    <t>m1003606</t>
+    <t>pL0</t>
   </si>
   <si>
     <t>f0</t>
   </si>
   <si>
-    <t>pL0</t>
+    <t>tc0</t>
+  </si>
+  <si>
+    <t>f63750</t>
   </si>
   <si>
     <t>p6168</t>
   </si>
   <si>
     <t>f57237</t>
-  </si>
-  <si>
-    <t>f63750</t>
   </si>
   <si>
     <t>p6405</t>
@@ -697,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,25 +1128,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.02031</v>
+        <v>0.02597</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -766,25 +1157,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.02974</v>
+        <v>0.026981</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -795,13 +1186,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -813,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.029951</v>
+        <v>0.030641</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -824,25 +1215,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.031231</v>
+        <v>0.032071</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -853,25 +1244,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.034481</v>
+        <v>0.032571</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -882,13 +1273,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -900,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.034811</v>
+        <v>0.034831</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -911,25 +1302,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.03512</v>
+        <v>0.035231</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -940,13 +1331,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -958,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.036701</v>
+        <v>0.03633</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -969,25 +1360,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.037401</v>
+        <v>0.037121</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -998,25 +1389,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.041291</v>
+        <v>0.03906</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1027,25 +1418,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.042442</v>
+        <v>0.039321</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1056,25 +1447,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.043982</v>
+        <v>0.040351</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1085,25 +1476,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.044221</v>
+        <v>0.042542</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1114,25 +1505,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.045811</v>
+        <v>0.044481</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1143,13 +1534,13 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1161,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.04983</v>
+        <v>0.045693</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1172,25 +1563,25 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.050841</v>
+        <v>0.046433</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1201,25 +1592,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.057151</v>
+        <v>0.046781</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1230,25 +1621,25 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.057281</v>
+        <v>0.047191</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,25 +1650,25 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.057322</v>
+        <v>0.049001</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1288,25 +1679,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.057391</v>
+        <v>0.049781</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1317,25 +1708,25 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.058651</v>
+        <v>0.050641</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1346,16 +1737,16 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1364,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.058901</v>
+        <v>0.051251</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1375,25 +1766,25 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.060352</v>
+        <v>0.052791</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1404,13 +1795,13 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1422,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.081802</v>
+        <v>0.055592</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1433,13 +1824,13 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="E26">
         <v>17</v>
@@ -1451,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.095122</v>
+        <v>0.063192</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1462,25 +1853,25 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="E27">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.146484</v>
+        <v>0.066482</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1491,16 +1882,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="E28">
-        <v>656</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1509,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1.39527</v>
+        <v>0.06742099999999999</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1520,16 +1911,16 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="E29">
-        <v>814</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1538,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1.47381</v>
+        <v>0.068922</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1549,16 +1940,16 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="E30">
-        <v>745</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1567,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1.66955</v>
+        <v>0.075013</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1578,16 +1969,16 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1596,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1.67951</v>
+        <v>0.087572</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1607,16 +1998,16 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="E32">
-        <v>920</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1625,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1.7694</v>
+        <v>0.092763</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1636,16 +2027,16 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="E33">
-        <v>814</v>
+        <v>41</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1654,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2.13328</v>
+        <v>0.128654</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1665,16 +2056,16 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="E34">
-        <v>920</v>
+        <v>17</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -1683,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2.2445</v>
+        <v>0.136704</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1694,16 +2085,16 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="E35">
-        <v>1208</v>
+        <v>70</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1712,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2.32757</v>
+        <v>0.153965</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1723,25 +2114,25 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="E36">
-        <v>1819</v>
+        <v>66</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2.50238</v>
+        <v>0.187635</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1752,16 +2143,16 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="E37">
-        <v>1208</v>
+        <v>127</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1770,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2.73512</v>
+        <v>0.251758</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1781,16 +2172,16 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="E38">
-        <v>2055</v>
+        <v>325</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1799,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>3.02789</v>
+        <v>0.462412</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1810,25 +2201,25 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E39">
-        <v>5641</v>
+        <v>325</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>5.1598</v>
+        <v>0.7218</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1839,44 +2230,1900 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40">
+        <v>263</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0.928565</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41">
+        <v>711</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1.08393</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1.34224</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43">
+        <v>814</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1.37649</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44">
+        <v>1000</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1.6186</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45">
+        <v>920</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1.69585</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46">
+        <v>656</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1.86912</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47">
+        <v>745</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1.87248</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48">
+        <v>814</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1.98188</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49">
+        <v>1208</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1.98899</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50">
+        <v>920</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2.24936</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51">
+        <v>1680</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2.38066</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52">
+        <v>1819</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2.406</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53">
+        <v>2448</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2.48772</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54">
+        <v>1208</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2.84821</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55">
+        <v>2055</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2.93318</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56">
+        <v>1388</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>5.02667</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57">
+        <v>1080</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>5.84228</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58">
+        <v>5641</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>6.68167</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59">
+        <v>2448</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>6.77268</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60">
+        <v>6101</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>8.23258</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61">
+        <v>2080</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>8.57044</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>226</v>
+      </c>
+      <c r="E62">
+        <v>2080</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>8.682980000000001</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63">
+        <v>6040</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>9.22823</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64">
+        <v>3057</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>9.415900000000001</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" t="s">
+        <v>226</v>
+      </c>
+      <c r="E65">
+        <v>3788</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>10.2664</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66">
+        <v>7931</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>10.3238</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67">
+        <v>3788</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>11.831</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68">
+        <v>9960</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>13.2422</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69">
+        <v>7061</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>13.3532</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>226</v>
+      </c>
+      <c r="E70">
+        <v>7562</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>16.1592</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71">
+        <v>8223</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>16.5555</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72">
+        <v>10218</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>18.7596</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73">
+        <v>22179</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>21.6571</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74">
+        <v>19354</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>21.7696</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75">
+        <v>21739</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>24.3547</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76">
+        <v>27876</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>29.8809</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77">
+        <v>17831</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>31.7093</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78">
+        <v>22179</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>38.0754</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79">
+        <v>22415</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>40.6794</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80">
+        <v>27876</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>52.4398</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
         <v>88</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81">
+        <v>48098</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>68.5561</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82">
+        <v>74896</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>81.4096</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83">
+        <v>60609</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>91.74290000000001</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84">
+        <v>86064</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>113.951</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85">
+        <v>116815</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>141.945</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86">
+        <v>304994</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>315.999</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87">
+        <v>333131</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>318.626</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" t="s">
+        <v>226</v>
+      </c>
+      <c r="E88">
+        <v>301597</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>358.878</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
         <v>96</v>
       </c>
-      <c r="E40">
-        <v>2080</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>9.78468</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="2" t="s">
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89">
+        <v>199029</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>473.661</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="3">
-        <v>487.6923076923077</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="2" t="s">
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90">
+        <v>216184</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>518.51</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="3">
-        <v>1.006189256410256</v>
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91">
+        <v>510472</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>594.831</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92">
+        <v>304994</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>604.885</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93">
+        <v>333131</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>723.672</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94">
+        <v>637596</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>750.59</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" t="s">
+        <v>208</v>
+      </c>
+      <c r="D95" t="s">
+        <v>224</v>
+      </c>
+      <c r="E95">
+        <v>785340</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>909.746</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" t="s">
+        <v>223</v>
+      </c>
+      <c r="E96">
+        <v>804528</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>936.33</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97">
+        <v>1188146</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1346.73</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98">
+        <v>1024550</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1509.37</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99">
+        <v>1111642</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1557.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100">
+        <v>2199611</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>2714.29</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101">
+        <v>3015168</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>3683.21</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" t="s">
+        <v>224</v>
+      </c>
+      <c r="E102">
+        <v>12902628</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>17421.8</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103">
+        <v>16698166</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>23979.5</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" t="s">
+        <v>224</v>
+      </c>
+      <c r="E104">
+        <v>14314880</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>35064.4</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="3">
+        <v>561752.4854368932</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H107" s="3">
+        <v>919.9413917961165</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1923,28 +4170,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="E2">
-        <v>5641</v>
+        <v>16698166</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>5.1598</v>
+        <v>23979.5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1952,28 +4199,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="E3">
-        <v>2080</v>
+        <v>12902628</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>9.78468</v>
+        <v>17421.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1981,28 +4228,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="E4">
-        <v>2055</v>
+        <v>3015168</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>3.02789</v>
+        <v>3683.21</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2010,28 +4257,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>1819</v>
+        <v>2199611</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2.50238</v>
+        <v>2714.29</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2039,28 +4286,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="E6">
-        <v>1208</v>
+        <v>1188146</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>2.32757</v>
+        <v>1346.73</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2068,28 +4315,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="E7">
-        <v>920</v>
+        <v>1111642</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1.7694</v>
+        <v>1557.2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2097,28 +4344,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="E8">
-        <v>814</v>
+        <v>1024550</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1.47381</v>
+        <v>1509.37</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2126,28 +4373,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="E9">
-        <v>745</v>
+        <v>804528</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1.66955</v>
+        <v>936.33</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2155,28 +4402,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="E10">
-        <v>656</v>
+        <v>785340</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.39527</v>
+        <v>909.746</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2184,28 +4431,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="E11">
-        <v>70</v>
+        <v>637596</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.146484</v>
+        <v>750.59</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2213,28 +4460,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>510472</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.095122</v>
+        <v>594.831</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2242,28 +4489,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>333131</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.057391</v>
+        <v>723.672</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2271,28 +4518,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>304994</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.060352</v>
+        <v>604.885</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2300,28 +4547,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>301597</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.042442</v>
+        <v>358.878</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2329,28 +4576,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>216184</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.02031</v>
+        <v>518.51</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2358,28 +4605,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>199029</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.02974</v>
+        <v>473.661</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2387,28 +4634,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>116815</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.058651</v>
+        <v>141.945</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2416,28 +4663,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>86064</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.057151</v>
+        <v>113.951</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2445,28 +4692,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>74896</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.04983</v>
+        <v>81.4096</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2474,28 +4721,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>60609</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.045811</v>
+        <v>91.74290000000001</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2503,28 +4750,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>48098</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.043982</v>
+        <v>68.5561</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2532,28 +4779,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>27876</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.034481</v>
+        <v>52.4398</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2561,28 +4808,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>22415</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.081802</v>
+        <v>40.6794</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2590,47 +4837,1207 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25">
+        <v>22179</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>38.0754</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26">
+        <v>17831</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>31.7093</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27">
+        <v>9960</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>13.2422</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28">
+        <v>8223</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>16.5555</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29">
+        <v>7931</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>10.3238</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30">
+        <v>7562</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>16.1592</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31">
+        <v>7061</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>13.3532</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32">
+        <v>6101</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>8.23258</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33">
+        <v>6040</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>9.22823</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34">
+        <v>3788</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>10.2664</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35">
+        <v>3057</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>9.415900000000001</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36">
+        <v>2448</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>6.77268</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37">
+        <v>2080</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>8.57044</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38">
+        <v>1680</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2.38066</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39">
+        <v>1388</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>5.02667</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40">
+        <v>1208</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2.84821</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41">
+        <v>1080</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>5.84228</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1.6186</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43">
+        <v>920</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2.24936</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44">
+        <v>814</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1.98188</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0.057281</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="3">
-        <v>668.7083333333334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1.2496325</v>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45">
+        <v>711</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1.08393</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46">
+        <v>325</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0.7218</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47">
+        <v>263</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0.928565</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48">
+        <v>127</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0.251758</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49">
+        <v>66</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0.187635</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50">
+        <v>41</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0.128654</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0.136704</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0.087572</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0.046781</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0.039321</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0.044481</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0.066482</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0.049781</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0.040351</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0.034831</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0.03633</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0.026981</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0.051251</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1.34224</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0.030641</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0.02597</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="3">
+        <v>668492.296875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H68" s="3">
+        <v>920.205333578125</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +6047,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2677,28 +6084,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="E2">
-        <v>1208</v>
+        <v>333131</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>2.73512</v>
+        <v>318.626</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2706,28 +6113,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="E3">
-        <v>920</v>
+        <v>304994</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2.2445</v>
+        <v>315.999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2735,28 +6142,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="E4">
-        <v>814</v>
+        <v>27876</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2.13328</v>
+        <v>29.8809</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2764,28 +6171,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>22179</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.050841</v>
+        <v>21.6571</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2793,28 +6200,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>21739</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.058901</v>
+        <v>24.3547</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2822,28 +6229,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>19354</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.03512</v>
+        <v>21.7696</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2851,28 +6258,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>10218</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.041291</v>
+        <v>18.7596</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2880,28 +6287,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>5641</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.037401</v>
+        <v>6.68167</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2909,28 +6316,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3788</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.034811</v>
+        <v>11.831</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2938,28 +6345,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2448</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.036701</v>
+        <v>2.48772</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2967,28 +6374,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2080</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.044221</v>
+        <v>8.682980000000001</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2996,28 +6403,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2055</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.057322</v>
+        <v>2.93318</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3025,28 +6432,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1819</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.029951</v>
+        <v>2.406</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3054,28 +6461,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.031231</v>
+        <v>1.98899</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3083,47 +6490,598 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1.67951</v>
+        <v>1.69585</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="3">
-        <v>198.0666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.6166800666666667</v>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17">
+        <v>814</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.37649</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18">
+        <v>745</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.87248</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19">
+        <v>656</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.86912</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20">
+        <v>325</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.462412</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.153965</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.063192</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.075013</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.06742099999999999</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.03906</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.068922</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.092763</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.055592</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.049001</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.046433</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0.045693</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0.042542</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.037121</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.032071</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.035231</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="3">
+        <v>22414.73529411765</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H38" s="3">
+        <v>23.41878858823529</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +7091,210 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2">
+        <v>14314880</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>35064.4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.050641</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.047191</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.052791</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.032571</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2862979.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7012.916638800001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3147,91 +7308,117 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>1.2496325</v>
+        <v>920.205333578125</v>
       </c>
       <c r="E2">
-        <v>0.02031</v>
+        <v>0.02597</v>
       </c>
       <c r="F2">
-        <v>9.78468</v>
+        <v>23979.5</v>
       </c>
       <c r="G2">
-        <v>16049</v>
+        <v>42783507</v>
       </c>
       <c r="H2">
-        <v>668.7083333333334</v>
+        <v>668492.296875</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>0.6166800666666667</v>
+        <v>23.41878858823529</v>
       </c>
       <c r="E3">
-        <v>0.029951</v>
+        <v>0.032071</v>
       </c>
       <c r="F3">
-        <v>2.73512</v>
+        <v>318.626</v>
       </c>
       <c r="G3">
-        <v>2971</v>
+        <v>762101</v>
       </c>
       <c r="H3">
-        <v>198.0666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="2">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.9331562833333333</v>
-      </c>
-      <c r="G5" s="2">
-        <v>19020</v>
-      </c>
-      <c r="H5" s="3">
-        <v>433.3875</v>
+        <v>22414.73529411765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7012.916638799999</v>
+      </c>
+      <c r="E4">
+        <v>0.032571</v>
+      </c>
+      <c r="F4">
+        <v>35064.4</v>
+      </c>
+      <c r="G4">
+        <v>14314898</v>
+      </c>
+      <c r="H4">
+        <v>2862979.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="2">
+        <v>103</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2652.180253655453</v>
+      </c>
+      <c r="G6" s="2">
+        <v>57860506</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1184628.877389706</v>
       </c>
     </row>
   </sheetData>
